--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C4601-51BC-4494-8670-684D37AA4995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30230596-FAD0-4D43-9D17-22612FF0346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Problema</t>
   </si>
@@ -115,6 +115,31 @@
   </si>
   <si>
     <t>ABCDE4848145105187166120139731921871871674729681652003412086271041211291121057812302017613720020012036211601618941152144</t>
+  </si>
+  <si>
+    <t>IntegrityError at /users/register_view/
+UNIQUE constraint failed: auth_user.username</t>
+  </si>
+  <si>
+    <t>from django.contrib.auth.models import User
+if User.objects.filter(username=username).exists():
+    # Manejar el caso en el que el nombre de usuario ya existe</t>
+  </si>
+  <si>
+    <t>Se escribe un usuario que ya existe</t>
+  </si>
+  <si>
+    <t>from django import forms
+from django.contrib.auth.models import User
+class UserRegistrationForm(forms.ModelForm):
+    class Meta:
+        model = User
+        fields = ['username', 'password']
+    def clean_username(self):
+        username = self.cleaned_data.get('username')
+        if User.objects.filter(username=username).exists():
+            raise forms.ValidationError("El nombre de usuario ya está en uso.")
+        return username</t>
   </si>
 </sst>
 </file>
@@ -153,7 +178,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +470,7 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,15 +481,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -472,23 +497,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -765,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8C083-2DDA-41FF-AACC-B226B5DD11AF}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30230596-FAD0-4D43-9D17-22612FF0346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E7D14-DEFD-4B84-82A5-3B362F8888BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Problema</t>
   </si>
@@ -141,13 +141,30 @@
             raise forms.ValidationError("El nombre de usuario ya está en uso.")
         return username</t>
   </si>
+  <si>
+    <t>Correlaciones muy bajas</t>
+  </si>
+  <si>
+    <t>No se ven los numeros</t>
+  </si>
+  <si>
+    <t>corr('pearson').round(2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,7 +195,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +479,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +487,7 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -489,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -497,7 +514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -505,7 +522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -513,21 +530,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS\Carpetas\Entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E7D14-DEFD-4B84-82A5-3B362F8888BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF01DA-3159-4655-94F1-5B59CD0724C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Problema</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Data frame muy grande/mostrar</t>
   </si>
   <si>
-    <t>No lo veo un problema pero se podria mejorar con una opcion de solo ver la primera parte con un max(5) por ejemplo</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -108,40 +105,12 @@
     <t>Tabla desalineada</t>
   </si>
   <si>
-    <t>stylo de tabla definido en css.styles</t>
-  </si>
-  <si>
     <t>ABCDE9.009.009.009.009.00121.7899.5695.33115.8999.5670.1553.5271.1658.7162.8929.0020.001.0021.0012.0048.0068.0036.0078.0047.00129.0089.00105.00137.00105.00187.00120.00165.00152.00144.00200.00187.00187.00200.00200.00</t>
   </si>
   <si>
     <t>ABCDE4848145105187166120139731921871871674729681652003412086271041211291121057812302017613720020012036211601618941152144</t>
   </si>
   <si>
-    <t>IntegrityError at /users/register_view/
-UNIQUE constraint failed: auth_user.username</t>
-  </si>
-  <si>
-    <t>from django.contrib.auth.models import User
-if User.objects.filter(username=username).exists():
-    # Manejar el caso en el que el nombre de usuario ya existe</t>
-  </si>
-  <si>
-    <t>Se escribe un usuario que ya existe</t>
-  </si>
-  <si>
-    <t>from django import forms
-from django.contrib.auth.models import User
-class UserRegistrationForm(forms.ModelForm):
-    class Meta:
-        model = User
-        fields = ['username', 'password']
-    def clean_username(self):
-        username = self.cleaned_data.get('username')
-        if User.objects.filter(username=username).exists():
-            raise forms.ValidationError("El nombre de usuario ya está en uso.")
-        return username</t>
-  </si>
-  <si>
     <t>Correlaciones muy bajas</t>
   </si>
   <si>
@@ -149,6 +118,36 @@
   </si>
   <si>
     <t>corr('pearson').round(2)</t>
+  </si>
+  <si>
+    <t>No se alinean bien</t>
+  </si>
+  <si>
+    <t>stylo de tabla definido en css.styles aunque no fue la solucion definitiva, tambien se declaro el estilo en el mismo html</t>
+  </si>
+  <si>
+    <t>Cargan archivos no validos para analizar</t>
+  </si>
+  <si>
+    <t>Se analiza igual tira cualquier cosa, el usuario puede pensar que los analisis no son fiables</t>
+  </si>
+  <si>
+    <t>Leer si el archivo es csv</t>
+  </si>
+  <si>
+    <t>Boxplot, no existe la variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se rompe la web </t>
+  </si>
+  <si>
+    <t>Error y mensaje</t>
+  </si>
+  <si>
+    <t>Queda feo</t>
+  </si>
+  <si>
+    <t>Lo puse abajo y listo</t>
   </si>
 </sst>
 </file>
@@ -476,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +486,7 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -506,324 +505,338 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17">
+        <v>999</v>
+      </c>
+      <c r="I17">
+        <v>999</v>
+      </c>
+      <c r="J17">
+        <v>999</v>
+      </c>
+      <c r="K17">
+        <v>999</v>
+      </c>
+      <c r="L17">
+        <v>999</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17">
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>999</v>
+        <v>121.78</v>
       </c>
       <c r="H18">
-        <v>999</v>
+        <v>99.56</v>
       </c>
       <c r="I18">
-        <v>999</v>
+        <v>95.33</v>
       </c>
       <c r="J18">
-        <v>999</v>
+        <v>115.89</v>
       </c>
       <c r="K18">
-        <v>999</v>
+        <v>99.56</v>
       </c>
       <c r="L18">
-        <v>999</v>
+        <v>348.43</v>
       </c>
       <c r="M18">
-        <v>999</v>
+        <v>50.8</v>
       </c>
       <c r="N18">
-        <v>999</v>
+        <v>72.69</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>121.78</v>
+        <v>66.17</v>
       </c>
       <c r="H19">
-        <v>99.56</v>
+        <v>50.48</v>
       </c>
       <c r="I19">
-        <v>95.33</v>
+        <v>67.12</v>
       </c>
       <c r="J19">
-        <v>115.89</v>
+        <v>55.38</v>
       </c>
       <c r="K19">
-        <v>99.56</v>
+        <v>59.32</v>
       </c>
       <c r="L19">
-        <v>348.43</v>
+        <v>86.37</v>
       </c>
       <c r="M19">
-        <v>50.8</v>
+        <v>28.71</v>
       </c>
       <c r="N19">
-        <v>72.69</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>29</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="G20">
-        <v>66.17</v>
-      </c>
-      <c r="H20">
-        <v>50.48</v>
-      </c>
-      <c r="I20">
-        <v>67.12</v>
-      </c>
-      <c r="J20">
-        <v>55.38</v>
-      </c>
-      <c r="K20">
-        <v>59.32</v>
-      </c>
       <c r="L20">
-        <v>86.37</v>
+        <v>200</v>
       </c>
       <c r="M20">
-        <v>28.71</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>31.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>13</v>
+      <c r="F21" s="1">
+        <v>0.25</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J21">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F22" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="H22">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J22">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="K22">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="L22">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N22">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F23" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G23">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="H23">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I23">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="J23">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K23">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L23">
-        <v>350</v>
+        <v>421.5</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="N23">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
-        <v>0.75</v>
+      <c r="F24" t="s">
+        <v>14</v>
       </c>
       <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
         <v>187</v>
       </c>
-      <c r="H24">
-        <v>120</v>
-      </c>
       <c r="I24">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="J24">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="K24">
+        <v>200</v>
+      </c>
+      <c r="L24">
+        <v>500</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
         <v>144</v>
       </c>
-      <c r="L24">
-        <v>421.5</v>
-      </c>
-      <c r="M24">
-        <v>75</v>
-      </c>
-      <c r="N24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>200</v>
-      </c>
-      <c r="H25">
-        <v>187</v>
-      </c>
-      <c r="I25">
-        <v>187</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
-      </c>
-      <c r="K25">
-        <v>200</v>
-      </c>
-      <c r="L25">
-        <v>500</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="N25">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>25</v>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +856,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="5:24" x14ac:dyDescent="0.25">
@@ -900,7 +913,7 @@
     </row>
     <row r="20" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S20" t="s">
         <v>11</v>
@@ -1023,7 +1036,7 @@
     </row>
     <row r="26" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S26" t="s">
         <v>14</v>
@@ -1083,7 +1096,7 @@
     </row>
     <row r="30" spans="5:24" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S30">
         <v>1</v>
